--- a/tara/TARA-ECU.xlsx
+++ b/tara/TARA-ECU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tech\vehicle\tara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\tech\vehicle\tara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC35ED5-60C2-4001-BD9E-8E9C123A73B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C4981-3428-4D79-A6F1-447535C817EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="222">
   <si>
     <t>Author</t>
   </si>
@@ -88,14 +88,6 @@
   </si>
   <si>
     <t>Domain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treat Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treat ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,10 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treat Details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flash tampered firmware</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treat Level Value (Expertise + Knowledge + Window of opportunity + Equipment）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[4, 7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treat Level Value (Safety + Privacy + Financial+ Operational）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[10, )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,14 +762,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Treat Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treat Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,6 +844,31 @@
   </si>
   <si>
     <t>REQ-Conn-OTA-TPF-0001</t>
+  </si>
+  <si>
+    <t>Threat ID</t>
+  </si>
+  <si>
+    <t>Threat Description</t>
+  </si>
+  <si>
+    <t>Threat Level</t>
+  </si>
+  <si>
+    <t>Threat Value</t>
+  </si>
+  <si>
+    <t>Threat Details</t>
+  </si>
+  <si>
+    <t>Threat Level Value (Expertise + Knowledge + Window of opportunity + Equipment）</t>
+  </si>
+  <si>
+    <t>Threat Level Value (Safety + Privacy + Financial+ Operational）</t>
+  </si>
+  <si>
+    <t>Risk Control/Mitigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1059,6 +1056,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1075,21 +1087,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1457,21 +1454,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -1498,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1515,16 +1512,16 @@
         <v>45261</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1574,57 +1571,57 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
@@ -1646,7 +1643,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1660,48 +1657,48 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
@@ -1726,7 +1723,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1738,146 +1735,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1902,15 +1899,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -1948,21 +1945,21 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1990,11 +1987,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -2003,71 +2000,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2099,10 +2096,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -2111,109 +2108,109 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DC4C29-8B98-433E-A5DF-D43CF6BF0A06}">
   <dimension ref="B2:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2241,7 +2238,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2252,10 +2249,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2264,8 +2261,8 @@
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
-        <v>123</v>
+      <c r="B4" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="9">
@@ -2285,116 +2282,116 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2405,13 +2402,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -2420,7 +2417,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2431,28 +2428,28 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="D15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2461,13 +2458,13 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2476,31 +2473,31 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="D18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -2511,76 +2508,76 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
+      <c r="D21" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="D22" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="D23" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>3</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="D24" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2591,76 +2588,76 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
+      <c r="D27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="D28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="D29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
+      <c r="D30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -2671,76 +2668,76 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="D33" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="D34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
+      <c r="D35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="D36" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2751,82 +2748,82 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="4">
         <v>4</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
+      <c r="D39" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
+      <c r="D40" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
+      <c r="D41" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
+      <c r="D42" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
+      <c r="D43" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -2837,13 +2834,13 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -2863,76 +2860,76 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
+      <c r="D49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C50" s="4">
         <v>10</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
+      <c r="D50" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4">
         <v>100</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
+      <c r="D51" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C52" s="4">
         <v>1000</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
+      <c r="D52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -2943,76 +2940,76 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
+      <c r="D55" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C56" s="4">
         <v>10</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
+      <c r="D56" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4">
         <v>50</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
+      <c r="D57" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4">
         <v>100</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
+      <c r="D58" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -3023,76 +3020,76 @@
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
+      <c r="D61" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4">
         <v>10</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
+      <c r="D62" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4">
         <v>100</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
+      <c r="D63" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C64" s="4">
         <v>1000</v>
       </c>
-      <c r="D64" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
+      <c r="D64" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -3103,76 +3100,76 @@
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
+      <c r="D67" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
+      <c r="D68" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C69" s="4">
         <v>10</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
+      <c r="D69" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4">
         <v>100</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
+      <c r="D70" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="20"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -3183,90 +3180,121 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73" s="4">
         <v>4</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
+      <c r="D73" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
+      <c r="D74" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C75" s="4">
         <v>2</v>
       </c>
-      <c r="D75" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
+      <c r="D75" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
-      <c r="D76" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
+      <c r="D76" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
       </c>
-      <c r="D77" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
+      <c r="D77" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B72:H72"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
@@ -3283,46 +3311,15 @@
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="D73:H73"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="D77:H77"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D68:H68"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="D61:H61"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3354,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -3362,118 +3359,118 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="32"/>
       <c r="K1" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
       <c r="O1" s="32"/>
       <c r="P1" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="K3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3514,93 +3511,93 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="23"/>
       <c r="K1" s="21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="23"/>
       <c r="P1" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -3633,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
